--- a/app/File1.xlsx
+++ b/app/File1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlescollins/file_compare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlescollins/r_file_compare/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAC873A-F653-9B4E-A965-4CB075399D13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958B0787-C18D-614E-B253-B8C8AA1660D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1540" windowWidth="28040" windowHeight="17440" xr2:uid="{5CF621F1-C25E-414E-8D92-551E17CD615B}"/>
+    <workbookView xWindow="2780" yWindow="1540" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{5CF621F1-C25E-414E-8D92-551E17CD615B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Example_Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Another_Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
   <si>
     <t>dimension_1</t>
   </si>
@@ -106,6 +107,12 @@
   </si>
   <si>
     <t>dim2_val10</t>
+  </si>
+  <si>
+    <t>dimension_4</t>
+  </si>
+  <si>
+    <t>dim2_valdfs</t>
   </si>
 </sst>
 </file>
@@ -465,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847BC62C-6DC9-5449-9A78-1DB216473749}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,4 +633,448 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4643A165-3AA2-014F-9C66-D3041BF9D75C}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D24" sqref="D23:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>32343111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>32343111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>32343111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>32343111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>32343111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>32343111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>